--- a/Projekt/Milestones.xlsx
+++ b/Projekt/Milestones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582A99D4-49F4-4859-83A8-7B5639739E78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFDA3F-2760-49A5-A741-195142A37C2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Grupa</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Projekt</t>
   </si>
   <si>
-    <t>1 (C#)</t>
-  </si>
-  <si>
     <t>Repo Utworzone</t>
   </si>
   <si>
@@ -83,6 +80,12 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>2 (C# / Docker)</t>
+  </si>
+  <si>
+    <t>3 (C# / JS / Vagrant)</t>
   </si>
 </sst>
 </file>
@@ -162,6 +165,13 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -184,13 +194,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,7 +226,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0495B094-1B89-4B2D-A911-88EBBB3AE334}" name="Tabela2" displayName="Tabela2" ref="B10:E14" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0495B094-1B89-4B2D-A911-88EBBB3AE334}" name="Tabela2" displayName="Tabela2" ref="B10:E14" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="B10:E14" xr:uid="{BFBECACD-03C1-426F-9BA0-5DDC363758E7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{596BC081-0B51-4390-B812-A41490A21CAD}" name="Grupa"/>
@@ -501,7 +504,7 @@
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,19 +529,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -552,10 +555,10 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -578,10 +581,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -604,10 +607,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -630,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -656,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">

--- a/Projekt/Milestones.xlsx
+++ b/Projekt/Milestones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFFDA3F-2760-49A5-A741-195142A37C2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75297C11-CA32-453F-AD6D-0CE34D2BC4ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,10 +82,10 @@
     <t>?</t>
   </si>
   <si>
-    <t>2 (C# / Docker)</t>
-  </si>
-  <si>
-    <t>3 (C# / JS / Vagrant)</t>
+    <t>3 (brak Vagrant / Java)</t>
+  </si>
+  <si>
+    <t>3 (brak Java / Docker / Python)</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,6 +686,9 @@
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E12" s="5">
+        <v>43552.4375</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -696,6 +699,9 @@
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>43551.729166666664</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">

--- a/Projekt/Milestones.xlsx
+++ b/Projekt/Milestones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75297C11-CA32-453F-AD6D-0CE34D2BC4ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BED419-8BE6-4712-AFAD-493B2F27B96E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Grupa</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Paliwo</t>
   </si>
   <si>
-    <t>Rezerwacje</t>
-  </si>
-  <si>
     <t>Skrót</t>
   </si>
   <si>
@@ -85,14 +82,32 @@
     <t>3 (brak Vagrant / Java)</t>
   </si>
   <si>
-    <t>3 (brak Java / Docker / Python)</t>
+    <t>4 (brak Java / Docker)</t>
+  </si>
+  <si>
+    <t>https://github.com/CaishenNefri/PRz-S4-Projekt-Grzybek</t>
+  </si>
+  <si>
+    <t>https://github.com/dr124/projekcik</t>
+  </si>
+  <si>
+    <t>https://github.com/kryha5555/Gry-i-zabawy</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Kotlin</t>
+  </si>
+  <si>
+    <t>Grzybek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +119,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,21 +172,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
@@ -226,13 +283,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0495B094-1B89-4B2D-A911-88EBBB3AE334}" name="Tabela2" displayName="Tabela2" ref="B10:E14" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0495B094-1B89-4B2D-A911-88EBBB3AE334}" name="Tabela2" displayName="Tabela2" ref="B10:E14" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="B10:E14" xr:uid="{BFBECACD-03C1-426F-9BA0-5DDC363758E7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{596BC081-0B51-4390-B812-A41490A21CAD}" name="Grupa"/>
     <tableColumn id="2" xr3:uid="{366B49C5-740A-4545-BFCC-4AD6E7C78A17}" name="Skrót"/>
     <tableColumn id="3" xr3:uid="{702630F6-2EAA-4CCB-8D02-6321FE012DEE}" name="Projekt"/>
     <tableColumn id="4" xr3:uid="{8ABBB066-EBDC-469A-ADEE-B8E1F46752F9}" name="Termin spotkania 1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{66C166B7-2E86-4468-A09A-E413204310A1}" name="Tabela3" displayName="Tabela3" ref="B17:E21" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="B17:E21" xr:uid="{4E906C97-DA20-4032-930D-B60A59797385}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{AF41008F-0D07-4869-AA60-75A607BFC91D}" name="Grupa"/>
+    <tableColumn id="2" xr3:uid="{F94AF146-622B-4A62-8AB6-C95304A47F74}" name="Skrót"/>
+    <tableColumn id="3" xr3:uid="{BFAC459D-9C38-492E-9B13-D81FCAB8EDEC}" name="Projekt"/>
+    <tableColumn id="4" xr3:uid="{344B1857-DDDC-4BAD-B9D4-1F5F979F5B07}" name="URL" dataCellStyle="Hiperłącze"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I14"/>
+  <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +582,7 @@
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" customWidth="1"/>
     <col min="6" max="6" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
@@ -523,25 +593,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -555,19 +625,19 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -581,19 +651,19 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>6</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -607,10 +677,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -630,22 +700,22 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -653,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -711,15 +781,88 @@
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E21" r:id="rId1" xr:uid="{69C05B3B-FA5D-4980-9C7C-0BCEF9DB0DF2}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{D5105E34-7BA8-494F-ACC8-11B39271D561}"/>
+    <hyperlink ref="E18" r:id="rId3" xr:uid="{818CE26A-4963-4CAE-81DE-77A1B26F9EB8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Projekt/Milestones.xlsx
+++ b/Projekt/Milestones.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BED419-8BE6-4712-AFAD-493B2F27B96E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628D5730-6AF4-4C90-8077-ED1B3855609F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>Grupa</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Repo Utworzone</t>
   </si>
   <si>
-    <t>Commity zrobione</t>
-  </si>
-  <si>
     <t>Liczba materiałów PoC</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>3 (brak Vagrant / Java)</t>
   </si>
   <si>
-    <t>4 (brak Java / Docker)</t>
-  </si>
-  <si>
     <t>https://github.com/CaishenNefri/PRz-S4-Projekt-Grzybek</t>
   </si>
   <si>
@@ -101,6 +95,21 @@
   </si>
   <si>
     <t>Grzybek</t>
+  </si>
+  <si>
+    <t>Harmonogram</t>
+  </si>
+  <si>
+    <t>ponoć 01.04.2019</t>
+  </si>
+  <si>
+    <t>ponoć 03.04.2019</t>
+  </si>
+  <si>
+    <t>Commity zrobione: 28.03.2019</t>
+  </si>
+  <si>
+    <t>5 (brak Java)</t>
   </si>
 </sst>
 </file>
@@ -191,6 +200,13 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -213,13 +229,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -276,27 +285,28 @@
     <tableColumn id="4" xr3:uid="{31E5822A-6EC5-41F8-BFE1-76B5D5762CEB}" name="Liczba materiałów PoC"/>
     <tableColumn id="5" xr3:uid="{27BF02A3-4906-4C54-8BF5-D609BB945035}" name="Wymagana liczba materiałów PoC"/>
     <tableColumn id="6" xr3:uid="{91A7D529-D9F5-4ECE-BE4A-0350F32DD6E7}" name="Repo Utworzone"/>
-    <tableColumn id="7" xr3:uid="{16615009-B3B2-47BB-A0D8-ED96F350C397}" name="Commity zrobione"/>
+    <tableColumn id="7" xr3:uid="{16615009-B3B2-47BB-A0D8-ED96F350C397}" name="Commity zrobione: 28.03.2019"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0495B094-1B89-4B2D-A911-88EBBB3AE334}" name="Tabela2" displayName="Tabela2" ref="B10:E14" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="B10:E14" xr:uid="{BFBECACD-03C1-426F-9BA0-5DDC363758E7}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0495B094-1B89-4B2D-A911-88EBBB3AE334}" name="Tabela2" displayName="Tabela2" ref="B10:F14" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="B10:F14" xr:uid="{BFBECACD-03C1-426F-9BA0-5DDC363758E7}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{596BC081-0B51-4390-B812-A41490A21CAD}" name="Grupa"/>
     <tableColumn id="2" xr3:uid="{366B49C5-740A-4545-BFCC-4AD6E7C78A17}" name="Skrót"/>
     <tableColumn id="3" xr3:uid="{702630F6-2EAA-4CCB-8D02-6321FE012DEE}" name="Projekt"/>
     <tableColumn id="4" xr3:uid="{8ABBB066-EBDC-469A-ADEE-B8E1F46752F9}" name="Termin spotkania 1"/>
+    <tableColumn id="5" xr3:uid="{352ED507-2473-4136-A409-43A03E4E0D03}" name="Harmonogram"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{66C166B7-2E86-4468-A09A-E413204310A1}" name="Tabela3" displayName="Tabela3" ref="B17:E21" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{66C166B7-2E86-4468-A09A-E413204310A1}" name="Tabela3" displayName="Tabela3" ref="B17:E21" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="B17:E21" xr:uid="{4E906C97-DA20-4032-930D-B60A59797385}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AF41008F-0D07-4869-AA60-75A607BFC91D}" name="Grupa"/>
@@ -574,7 +584,7 @@
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,6 +596,7 @@
     <col min="6" max="6" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
@@ -599,19 +610,19 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -625,10 +636,10 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -651,10 +662,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -663,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -677,10 +688,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -700,13 +711,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -715,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -729,7 +740,10 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -745,6 +759,9 @@
       <c r="E11" s="5">
         <v>43549.583333333336</v>
       </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
@@ -773,6 +790,9 @@
       <c r="E13" s="5">
         <v>43551.729166666664</v>
       </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -782,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -796,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -810,7 +830,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -824,7 +844,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -846,10 +866,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Projekt/Milestones.xlsx
+++ b/Projekt/Milestones.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628D5730-6AF4-4C90-8077-ED1B3855609F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E0A1F4-E924-48EB-ADE7-667D0E58AA14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>Grupa</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Commity zrobione: 28.03.2019</t>
-  </si>
-  <si>
-    <t>5 (brak Java)</t>
   </si>
 </sst>
 </file>
@@ -638,8 +635,8 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>29</v>
+      <c r="F3">
+        <v>6</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -664,8 +661,8 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
+      <c r="F4">
+        <v>6</v>
       </c>
       <c r="G4">
         <v>6</v>

--- a/Projekt/Milestones.xlsx
+++ b/Projekt/Milestones.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E0A1F4-E924-48EB-ADE7-667D0E58AA14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Grupa</t>
   </si>
@@ -76,9 +75,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>3 (brak Vagrant / Java)</t>
-  </si>
-  <si>
     <t>https://github.com/CaishenNefri/PRz-S4-Projekt-Grzybek</t>
   </si>
   <si>
@@ -91,9 +87,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Kotlin</t>
-  </si>
-  <si>
     <t>Grzybek</t>
   </si>
   <si>
@@ -107,13 +100,49 @@
   </si>
   <si>
     <t>Commity zrobione: 28.03.2019</t>
+  </si>
+  <si>
+    <t>4 (brak Vagrant)</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Termin spotkania 2</t>
+  </si>
+  <si>
+    <t>https://github.com/Vulpie/FuelPrice</t>
+  </si>
+  <si>
+    <t>Commity zrobione: 04.04.20192</t>
+  </si>
+  <si>
+    <t>Liczba uczestników</t>
+  </si>
+  <si>
+    <t>8?</t>
+  </si>
+  <si>
+    <t>Fabric</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>Commity = ludzie</t>
+  </si>
+  <si>
+    <t>Kotlin - ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +166,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +199,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -178,11 +227,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -190,12 +240,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
@@ -217,7 +274,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -248,7 +304,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -272,44 +327,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B50862F-F9B7-4883-B414-0B710E32EC1A}" name="Tabela1" displayName="Tabela1" ref="B2:I6" totalsRowShown="0">
-  <autoFilter ref="B2:I6" xr:uid="{0B3DE0A3-C1A4-4304-BF49-A19B238C7BE3}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{09E7B69D-BB54-43C0-BEAE-6C02F7210E70}" name="Grupa"/>
-    <tableColumn id="2" xr3:uid="{55F75076-2387-439D-B1B3-ACEFFFDAC2A3}" name="Skrót"/>
-    <tableColumn id="3" xr3:uid="{87972356-7D49-4DC2-9F1D-0B4B97B73913}" name="Projekt"/>
-    <tableColumn id="9" xr3:uid="{9EF05E10-EBE6-4AE8-AE76-D4CB099C949C}" name="Wybrana technologia"/>
-    <tableColumn id="4" xr3:uid="{31E5822A-6EC5-41F8-BFE1-76B5D5762CEB}" name="Liczba materiałów PoC"/>
-    <tableColumn id="5" xr3:uid="{27BF02A3-4906-4C54-8BF5-D609BB945035}" name="Wymagana liczba materiałów PoC"/>
-    <tableColumn id="6" xr3:uid="{91A7D529-D9F5-4ECE-BE4A-0350F32DD6E7}" name="Repo Utworzone"/>
-    <tableColumn id="7" xr3:uid="{16615009-B3B2-47BB-A0D8-ED96F350C397}" name="Commity zrobione: 28.03.2019"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:M6" totalsRowShown="0">
+  <autoFilter ref="B2:M6"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Grupa"/>
+    <tableColumn id="2" name="Skrót"/>
+    <tableColumn id="3" name="Projekt"/>
+    <tableColumn id="10" name="Liczba uczestników"/>
+    <tableColumn id="9" name="Wybrana technologia"/>
+    <tableColumn id="4" name="Liczba materiałów PoC"/>
+    <tableColumn id="5" name="Wymagana liczba materiałów PoC"/>
+    <tableColumn id="6" name="Repo Utworzone"/>
+    <tableColumn id="7" name="Commity zrobione: 28.03.2019"/>
+    <tableColumn id="8" name="Commity zrobione: 04.04.20192"/>
+    <tableColumn id="12" name="Commity = ludzie" dataDxfId="0">
+      <calculatedColumnFormula>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Fabric"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0495B094-1B89-4B2D-A911-88EBBB3AE334}" name="Tabela2" displayName="Tabela2" ref="B10:F14" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="B10:F14" xr:uid="{BFBECACD-03C1-426F-9BA0-5DDC363758E7}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{596BC081-0B51-4390-B812-A41490A21CAD}" name="Grupa"/>
-    <tableColumn id="2" xr3:uid="{366B49C5-740A-4545-BFCC-4AD6E7C78A17}" name="Skrót"/>
-    <tableColumn id="3" xr3:uid="{702630F6-2EAA-4CCB-8D02-6321FE012DEE}" name="Projekt"/>
-    <tableColumn id="4" xr3:uid="{8ABBB066-EBDC-469A-ADEE-B8E1F46752F9}" name="Termin spotkania 1"/>
-    <tableColumn id="5" xr3:uid="{352ED507-2473-4136-A409-43A03E4E0D03}" name="Harmonogram"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B10:G14" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="B10:G14"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Grupa"/>
+    <tableColumn id="2" name="Skrót"/>
+    <tableColumn id="3" name="Projekt"/>
+    <tableColumn id="4" name="Termin spotkania 1"/>
+    <tableColumn id="5" name="Harmonogram"/>
+    <tableColumn id="6" name="Termin spotkania 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{66C166B7-2E86-4468-A09A-E413204310A1}" name="Tabela3" displayName="Tabela3" ref="B17:E21" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="B17:E21" xr:uid="{4E906C97-DA20-4032-930D-B60A59797385}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B17:E21" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="B17:E21"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AF41008F-0D07-4869-AA60-75A607BFC91D}" name="Grupa"/>
-    <tableColumn id="2" xr3:uid="{F94AF146-622B-4A62-8AB6-C95304A47F74}" name="Skrót"/>
-    <tableColumn id="3" xr3:uid="{BFAC459D-9C38-492E-9B13-D81FCAB8EDEC}" name="Projekt"/>
-    <tableColumn id="4" xr3:uid="{344B1857-DDDC-4BAD-B9D4-1F5F979F5B07}" name="URL" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="1" name="Grupa"/>
+    <tableColumn id="2" name="Skrót"/>
+    <tableColumn id="3" name="Projekt"/>
+    <tableColumn id="4" name="URL" dataCellStyle="Hiperłącze"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -577,11 +639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,12 +653,15 @@
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.33203125" customWidth="1"/>
     <col min="6" max="6" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="36.109375" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -607,22 +672,34 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -632,23 +709,33 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3" t="b">
+        <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -658,23 +745,36 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
       <c r="G4">
         <v>6</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4" t="b">
+        <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -685,22 +785,32 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5" t="b">
+        <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -708,25 +818,35 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6" t="b">
+        <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,10 +860,13 @@
         <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -757,10 +880,10 @@
         <v>43549.583333333336</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -773,8 +896,11 @@
       <c r="E12" s="5">
         <v>43552.4375</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -788,10 +914,13 @@
         <v>43551.729166666664</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43558.4375</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -799,7 +928,13 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43559.364583333336</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -813,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -827,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -841,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -854,6 +989,9 @@
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E20" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
@@ -863,23 +1001,24 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" xr:uid="{69C05B3B-FA5D-4980-9C7C-0BCEF9DB0DF2}"/>
-    <hyperlink ref="E19" r:id="rId2" xr:uid="{D5105E34-7BA8-494F-ACC8-11B39271D561}"/>
-    <hyperlink ref="E18" r:id="rId3" xr:uid="{818CE26A-4963-4CAE-81DE-77A1B26F9EB8}"/>
+    <hyperlink ref="E21" r:id="rId1"/>
+    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="E18" r:id="rId3"/>
+    <hyperlink ref="E20" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
-    <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Projekt/Milestones.xlsx
+++ b/Projekt/Milestones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3AECA8-560F-44BB-9200-850E743A0565}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12204"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>Grupa</t>
   </si>
@@ -57,15 +58,6 @@
     <t>Projekt</t>
   </si>
   <si>
-    <t>Repo Utworzone</t>
-  </si>
-  <si>
-    <t>Liczba materiałów PoC</t>
-  </si>
-  <si>
-    <t>Wymagana liczba materiałów PoC</t>
-  </si>
-  <si>
     <t>Termin spotkania 1</t>
   </si>
   <si>
@@ -102,9 +94,6 @@
     <t>Commity zrobione: 28.03.2019</t>
   </si>
   <si>
-    <t>4 (brak Vagrant)</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -136,12 +125,15 @@
   </si>
   <si>
     <t>Kotlin - ?</t>
+  </si>
+  <si>
+    <t>Poc dostarczone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,9 +243,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -313,6 +302,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -327,51 +319,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B2:M6" totalsRowShown="0">
-  <autoFilter ref="B2:M6"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Grupa"/>
-    <tableColumn id="2" name="Skrót"/>
-    <tableColumn id="3" name="Projekt"/>
-    <tableColumn id="10" name="Liczba uczestników"/>
-    <tableColumn id="9" name="Wybrana technologia"/>
-    <tableColumn id="4" name="Liczba materiałów PoC"/>
-    <tableColumn id="5" name="Wymagana liczba materiałów PoC"/>
-    <tableColumn id="6" name="Repo Utworzone"/>
-    <tableColumn id="7" name="Commity zrobione: 28.03.2019"/>
-    <tableColumn id="8" name="Commity zrobione: 04.04.20192"/>
-    <tableColumn id="12" name="Commity = ludzie" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B2:K6" totalsRowShown="0">
+  <autoFilter ref="B2:K6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grupa"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Skrót"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Projekt"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Liczba uczestników"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Wybrana technologia"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Poc dostarczone"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Commity zrobione: 28.03.2019"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Commity zrobione: 04.04.20192"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Commity = ludzie" dataDxfId="4">
       <calculatedColumnFormula>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Fabric"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Fabric"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="B10:G14" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="B10:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="B10:G14" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="B10:G14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Grupa"/>
-    <tableColumn id="2" name="Skrót"/>
-    <tableColumn id="3" name="Projekt"/>
-    <tableColumn id="4" name="Termin spotkania 1"/>
-    <tableColumn id="5" name="Harmonogram"/>
-    <tableColumn id="6" name="Termin spotkania 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Grupa"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Skrót"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Projekt"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Termin spotkania 1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Harmonogram"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Termin spotkania 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B17:E21" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="B17:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="B17:E21" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="B17:E21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Grupa"/>
-    <tableColumn id="2" name="Skrót"/>
-    <tableColumn id="3" name="Projekt"/>
-    <tableColumn id="4" name="URL" dataCellStyle="Hiperłącze"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Grupa"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Skrót"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Projekt"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="URL" dataCellStyle="Hiperłącze"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -639,11 +629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,14 +644,12 @@
     <col min="5" max="5" width="47.33203125" customWidth="1"/>
     <col min="6" max="6" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.109375" customWidth="1"/>
-    <col min="10" max="10" width="34.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -672,34 +660,28 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
       <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -713,29 +695,23 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
         <v>6</v>
       </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3" t="b">
+      <c r="J3" t="b">
         <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -749,32 +725,26 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
         <v>7</v>
       </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="L4" t="b">
+      <c r="J4" t="b">
         <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
         <v>1</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -785,32 +755,26 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
         <v>6</v>
       </c>
-      <c r="L5" t="b">
+      <c r="J5" t="b">
         <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -818,35 +782,29 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
         <v>6</v>
       </c>
-      <c r="L6" t="b">
+      <c r="J6" t="b">
         <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,16 +815,16 @@
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -880,10 +838,10 @@
         <v>43549.583333333336</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -897,10 +855,10 @@
         <v>43552.4375</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -914,13 +872,13 @@
         <v>43551.729166666664</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13" s="5">
         <v>43558.4375</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -928,13 +886,13 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" s="7">
         <v>43559.364583333336</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -948,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -962,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -976,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -990,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
@@ -1001,18 +959,18 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1"/>
-    <hyperlink ref="E19" r:id="rId2"/>
-    <hyperlink ref="E18" r:id="rId3"/>
-    <hyperlink ref="E20" r:id="rId4"/>
+    <hyperlink ref="E21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">

--- a/Projekt/Milestones.xlsx
+++ b/Projekt/Milestones.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3AECA8-560F-44BB-9200-850E743A0565}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A71C8B6-EA2B-4CA8-881A-78010022CE7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Grupa</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Poc dostarczone</t>
+  </si>
+  <si>
+    <t>Commity zrobione: 12.04.2019</t>
   </si>
 </sst>
 </file>
@@ -243,6 +246,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -302,9 +308,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -319,9 +322,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B2:K6" totalsRowShown="0">
-  <autoFilter ref="B2:K6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B2:L6" totalsRowShown="0">
+  <autoFilter ref="B2:L6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grupa"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Skrót"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Projekt"/>
@@ -330,17 +333,18 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Poc dostarczone"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Commity zrobione: 28.03.2019"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Commity zrobione: 04.04.20192"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Commity = ludzie" dataDxfId="4">
-      <calculatedColumnFormula>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Commity = ludzie" dataDxfId="0">
+      <calculatedColumnFormula>Tabela1[[#This Row],[Commity zrobione: 12.04.2019]]=Tabela1[[#This Row],[Liczba uczestników]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Fabric"/>
+    <tableColumn id="5" xr3:uid="{E3717590-578B-4BE3-B8DD-8FB018C0FDB6}" name="Commity zrobione: 12.04.2019"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="B10:G14" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="B10:G14" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="B10:G14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Grupa"/>
@@ -355,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="B17:E21" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela3" displayName="Tabela3" ref="B17:E21" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="B17:E21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Grupa"/>
@@ -630,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,11 +649,11 @@
     <col min="6" max="6" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.21875" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -680,8 +684,11 @@
       <c r="K2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -707,11 +714,14 @@
         <v>6</v>
       </c>
       <c r="J3" t="b">
-        <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+        <f>Tabela1[[#This Row],[Commity zrobione: 12.04.2019]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -737,14 +747,17 @@
         <v>7</v>
       </c>
       <c r="J4" t="b">
-        <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
+        <f>Tabela1[[#This Row],[Commity zrobione: 12.04.2019]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
         <v>1</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -770,11 +783,14 @@
         <v>6</v>
       </c>
       <c r="J5" t="b">
-        <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
+        <f>Tabela1[[#This Row],[Commity zrobione: 12.04.2019]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -800,11 +816,14 @@
         <v>6</v>
       </c>
       <c r="J6" t="b">
-        <f>Tabela1[[#This Row],[Commity zrobione: 04.04.20192]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+        <f>Tabela1[[#This Row],[Commity zrobione: 12.04.2019]]=Tabela1[[#This Row],[Liczba uczestników]]</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -841,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -858,7 +877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -878,7 +897,7 @@
         <v>43558.4375</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
